--- a/vowelRhymeCombosAndData/IPAOneVowelEndSlantInternal8Rhymes.xlsx
+++ b/vowelRhymeCombosAndData/IPAOneVowelEndSlantInternal8Rhymes.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robbyice/Desktop/GTPortfolio/humdrumR/vowelRhymeCombosAndData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B040E85D-9C64-3E47-B1A8-60506258D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD669B12-E4AB-034B-9E30-6AB790A4D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="3620" windowWidth="14540" windowHeight="13440" xr2:uid="{207D23F5-C4DF-3C4E-931B-EEF7CA5509E6}"/>
+    <workbookView xWindow="8420" yWindow="2900" windowWidth="14540" windowHeight="13440" xr2:uid="{207D23F5-C4DF-3C4E-931B-EEF7CA5509E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>gQf</t>
   </si>
@@ -432,6 +431,9 @@
   </si>
   <si>
     <t>sp2D</t>
+  </si>
+  <si>
+    <t>probabilities</t>
   </si>
 </sst>
 </file>
@@ -783,15 +785,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17175E2A-B206-7443-A81E-05DC6E12E190}">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -848,8 +858,12 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>(0.0039*0.0913)</f>
+        <v>3.5607E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -907,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -935,8 +952,11 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -965,7 +985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -993,8 +1013,11 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1022,8 +1045,11 @@
       <c r="I9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1051,8 +1077,11 @@
       <c r="I10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -1109,8 +1138,11 @@
       <c r="I12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1171,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -1167,8 +1199,11 @@
       <c r="I14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -1224,6 +1259,9 @@
       </c>
       <c r="I16" t="s">
         <v>11</v>
+      </c>
+      <c r="J16">
+        <v>6.2300000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
